--- a/浙江省慢病监测系统/省疾控机器信息20180301.xlsx
+++ b/浙江省慢病监测系统/省疾控机器信息20180301.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="184">
   <si>
     <t>应用</t>
   </si>
@@ -449,11 +449,6 @@
   </si>
   <si>
     <t>http://10.44.25.129:8090/zjjk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(内网)http://10.10.3.107:9090/zjjk
-(VPN)http://10.44.30.220:7001/zjjk</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -511,10 +506,6 @@
   </si>
   <si>
     <t>系统文件位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>慢病监测系统：wonders/zjjk</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -604,10 +595,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用户名/密码：(zjjk/2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>省慢病监测系统</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -685,11 +672,6 @@
   </si>
   <si>
     <t>122.224.124.118:3399</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>慢病监测
-Wonders 下，zjjk</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -825,6 +807,102 @@
     <t xml:space="preserve">10.44.3.133/orcl </t>
   </si>
   <si>
+    <t>代谢病面访</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator/163.comcom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>root/zjjkzx201906</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>root
+zjjkzx201906</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.浙江省CDC数据交换接口服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dxbmf_cs/dxbmf_cs(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>) dxbmf_zs/dxbmf_zs(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(内网)http://10.10.3.107:9090/zjjk(老)
+(VPN)http://10.44.30.220:7001/zjjk（老）
+(内网)http://10.10.3.107:9090/zjmb(新)
+(VPN)http://10.44.30.220:7001/zjmbapi（新）
+(内网)http://10.10.3.107:9090/zjmb(新)
+(VPN)http://10.44.30.220:7001/zjmnapi（新）
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢病监测
+Wonders 下，zjjk（老）
+Wonders 下，zjmb（新）
+Wonders 下，zjmbapi（新）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢病监测系统：wonders/zjjk（老）
+慢病监测系统：wonders/zjmb（新）
+慢病监测系统：wonders/zjmbapi（新）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名/密码：(zjjk/2)（老）（zjjk_ne/zjjk_new）（新）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>10.44.3.134/C</t>
     </r>
@@ -902,39 +980,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代谢病面访</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>administrator/163.comcom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>root/zjjkzx201906</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>root
-zjjkzx201906</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.浙江省CDC数据交换接口服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>dxbmf_cs/dxbmf_cs(</t>
+      <t>)---</t>
     </r>
     <r>
       <rPr>
@@ -944,7 +990,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>测试</t>
+      <t xml:space="preserve">正式
+</t>
     </r>
     <r>
       <rPr>
@@ -953,7 +1000,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>) dxbmf_zs/dxbmf_zs(</t>
+      <t>10.44.3.134/C</t>
     </r>
     <r>
       <rPr>
@@ -963,7 +1010,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>正式</t>
+      <t>盘</t>
     </r>
     <r>
       <rPr>
@@ -972,8 +1019,92 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
+      <t>/server/tomcat7_cs/webapp/dxbmfapi(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>),10.44.3.134/C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/server/tomcat7/webapp/dxbmf(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务端页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.44.3.134:8081/dxbmf（正式）
+http://10.44.3.134:8081/dxbmfapi（正式）
+http://10.44.3.134:8079/dxbmf（测式）
+http://10.44.3.134:8081/dxbmfapi（测试）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1274,7 +1405,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1541,7 +1672,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1665,6 +1796,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1973,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1986,7 +2120,7 @@
     <col min="5" max="5" width="15" style="51" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.25" style="51" customWidth="1"/>
     <col min="7" max="7" width="76" style="51" customWidth="1"/>
-    <col min="8" max="8" width="48.875" style="51" customWidth="1"/>
+    <col min="8" max="8" width="57.25" style="51" customWidth="1"/>
     <col min="9" max="9" width="34.125" style="51" customWidth="1"/>
     <col min="10" max="10" width="28" style="51" customWidth="1"/>
     <col min="11" max="11" width="13.875" style="51" customWidth="1"/>
@@ -2033,10 +2167,10 @@
         <v>79</v>
       </c>
       <c r="L1" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N1" s="52" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="50.25" customHeight="1">
@@ -2060,22 +2194,22 @@
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="125" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I2" s="121" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J2" s="103" t="s">
         <v>81</v>
       </c>
       <c r="K2" s="121" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L2" s="75" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N2" s="55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q2" s="51">
         <v>330727009</v>
@@ -2098,10 +2232,10 @@
       <c r="J3" s="103"/>
       <c r="K3" s="105"/>
       <c r="L3" s="54" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N3" s="55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="42.75" customHeight="1">
@@ -2110,7 +2244,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="105" t="s">
         <v>59</v>
@@ -2123,25 +2257,25 @@
       </c>
       <c r="G4" s="57"/>
       <c r="H4" s="125" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="I4" s="126" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="J4" s="103" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K4" s="103" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L4" s="99" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="M4" s="101" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N4" s="98" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="53.25" customHeight="1">
@@ -2190,10 +2324,10 @@
       </c>
       <c r="B7" s="106"/>
       <c r="C7" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="106" t="s">
         <v>111</v>
-      </c>
-      <c r="D7" s="106" t="s">
-        <v>112</v>
       </c>
       <c r="E7" s="106" t="s">
         <v>85</v>
@@ -2201,18 +2335,18 @@
       <c r="F7" s="59"/>
       <c r="G7" s="59"/>
       <c r="H7" s="60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I7" s="61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
       <c r="L7" s="62" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N7" s="63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="39" customHeight="1">
@@ -2224,18 +2358,18 @@
       <c r="F8" s="59"/>
       <c r="G8" s="59"/>
       <c r="H8" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I8" s="96" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>
       <c r="L8" s="62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N8" s="55" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="34.5" customHeight="1">
@@ -2247,23 +2381,23 @@
       <c r="F9" s="59"/>
       <c r="G9" s="59"/>
       <c r="H9" s="64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
       <c r="L9" s="62" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N9" s="55" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="34.5" customHeight="1">
       <c r="A10" s="76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
@@ -2276,7 +2410,7 @@
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
       <c r="H10" s="80" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="I10" s="81" t="s">
         <v>97</v>
@@ -2291,12 +2425,12 @@
     </row>
     <row r="11" spans="1:17" ht="34.5" customHeight="1">
       <c r="A11" s="118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="112"/>
       <c r="C11" s="115"/>
       <c r="D11" s="109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="112" t="s">
         <v>92</v>
@@ -2304,17 +2438,17 @@
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
       <c r="H11" s="84" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I11" s="81" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J11" s="85" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K11" s="78"/>
       <c r="L11" s="86" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M11" s="83"/>
       <c r="N11" s="83"/>
@@ -2328,17 +2462,17 @@
       <c r="F12" s="78"/>
       <c r="G12" s="78"/>
       <c r="H12" s="84" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I12" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="87" t="s">
         <v>132</v>
-      </c>
-      <c r="J12" s="87" t="s">
-        <v>135</v>
       </c>
       <c r="K12" s="78"/>
       <c r="L12" s="86" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M12" s="83"/>
       <c r="N12" s="83"/>
@@ -2352,15 +2486,15 @@
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
       <c r="H13" s="80" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I13" s="81" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J13" s="82"/>
       <c r="K13" s="78"/>
       <c r="L13" s="86" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M13" s="83"/>
       <c r="N13" s="83"/>
@@ -2374,15 +2508,15 @@
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
       <c r="H14" s="80" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I14" s="81" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J14" s="82"/>
       <c r="K14" s="78"/>
       <c r="L14" s="86" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M14" s="83"/>
       <c r="N14" s="83"/>
@@ -2416,18 +2550,18 @@
       <c r="F16" s="78"/>
       <c r="G16" s="78"/>
       <c r="H16" s="93" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I16" s="79" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J16" s="82"/>
       <c r="K16" s="78"/>
       <c r="L16" s="88" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M16" s="83" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N16" s="83"/>
     </row>
@@ -2440,25 +2574,25 @@
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="92" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I17" s="65" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J17" s="67"/>
       <c r="K17" s="59"/>
       <c r="L17" s="51" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="42.75" customHeight="1">
       <c r="A18" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
       <c r="D18" s="66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" s="65" t="s">
         <v>86</v>
@@ -2469,10 +2603,10 @@
         <v>88</v>
       </c>
       <c r="I18" s="72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J18" s="59" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K18" s="59"/>
       <c r="L18" s="62"/>
@@ -2488,34 +2622,37 @@
     </row>
     <row r="22" spans="1:12" ht="15.75">
       <c r="A22" s="97" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E22" s="94" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G22" s="94" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="47.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="109.5">
       <c r="A23" s="97"/>
       <c r="C23" s="51" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G23" s="95" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>173</v>
+        <v>169</v>
+      </c>
+      <c r="I23" s="141" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75">
@@ -2560,9 +2697,10 @@
     <hyperlink ref="H11" r:id="rId3" display="http://10.44.0.128:8019/zjjk"/>
     <hyperlink ref="H17" r:id="rId4"/>
     <hyperlink ref="H16" r:id="rId5"/>
+    <hyperlink ref="I23" r:id="rId6" display="http://10.44.3.134:8081/dxbmf"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3172,27 +3310,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1">
